--- a/Descargas_1.xlsx
+++ b/Descargas_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusti\grafico_prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48E723E-3877-4736-9ACE-5DDC91E1F0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5861BC75-09C1-4D53-9819-7F996A646329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
   <si>
     <t>URL</t>
   </si>
@@ -90,9 +90,6 @@
     <t>http://www.consejotransparencia.cl/transparencia_activa/datoabierto/archivos/notificaciones.csv</t>
   </si>
   <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/Tipologias%20y%20Asignaciones%20Especiales.xlsx</t>
-  </si>
-  <si>
     <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos//TA_Marco_normativo.csv</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
   </si>
   <si>
     <t>TA/ConsejoTransparencia_notificaciones.xlsx</t>
-  </si>
-  <si>
-    <t>TA/Asignaciones_Especiales.xlsx</t>
   </si>
   <si>
     <t>TA/PP0002.xlsx</t>
@@ -280,7 +274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +286,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -318,9 +320,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -602,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +631,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -659,7 +663,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -667,7 +671,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -675,7 +679,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -683,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -691,7 +695,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -699,7 +703,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -707,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -715,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -723,7 +727,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -731,7 +735,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -739,7 +743,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -747,7 +751,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -755,7 +759,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -763,15 +767,15 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>60</v>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -779,7 +783,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -787,7 +791,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -795,7 +799,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -803,7 +807,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -811,7 +815,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -819,7 +823,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -827,7 +831,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -835,7 +839,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -843,7 +847,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -851,7 +855,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -859,7 +863,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -867,7 +871,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -875,7 +879,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -883,7 +887,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -891,7 +895,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -899,7 +903,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -907,7 +911,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -915,7 +919,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -923,7 +927,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -931,7 +935,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -939,7 +943,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -947,15 +951,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -968,5 +964,6 @@
     <hyperlink ref="A8" r:id="rId6" xr:uid="{B6940C03-0790-449A-AB45-486F231279E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Descargas_1.xlsx
+++ b/Descargas_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusti\grafico_prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Transparencia_Activa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5861BC75-09C1-4D53-9819-7F996A646329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466F4972-D7F1-49D4-A89C-70D3337DB7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,135 +33,135 @@
     <t>ruta</t>
   </si>
   <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_PasivosMunicipio.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_ActosDocPublicadosenDO.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_Otras_autoridades.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_Potestades_otras.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_Marco_normativo.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_Facultades_funciones_atribuciones.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_Tramites_ante_consejo.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_ParticipacionCiudadana.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_Auditorias.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_Subsidios_beneficios_intermediarios.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_Subsidios_beneficios.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_Licitaciones.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/Organismos_360.csv</t>
+  </si>
+  <si>
+    <t>http://www.consejotransparencia.cl/transparencia_activa/datoabierto/archivos/casos.csv</t>
+  </si>
+  <si>
+    <t>http://www.consejotransparencia.cl/transparencia_activa/datoabierto/archivos/estadosPorCaso.csv</t>
+  </si>
+  <si>
+    <t>http://www.consejotransparencia.cl/transparencia_activa/datoabierto/archivos/motivosPorCaso.csv</t>
+  </si>
+  <si>
+    <t>http://www.consejotransparencia.cl/transparencia_activa/datoabierto/archivos/notificaciones.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos//TA_Marco_normativo.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP0002.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP0003.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP0004.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP0005.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP0006.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP0007.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP0008.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP0009.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00010.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00011.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00012.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00013.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00014.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00015.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00016.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00017.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00018.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00019.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00020.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00021.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/reclamados.csv</t>
+  </si>
+  <si>
+    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/reclamantes.csv</t>
+  </si>
+  <si>
+    <t>TA/TA_Otras_autoridades.xlsx</t>
+  </si>
+  <si>
     <t>TA/TA_PasivosMunicipio.xlsx</t>
   </si>
   <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_PasivosMunicipio.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_ActosDocPublicadosenDO.csv</t>
-  </si>
-  <si>
     <t>TA/TA_ActosDocPublicadosenDO.xlsx</t>
   </si>
   <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_Otras_autoridades.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_Potestades_otras.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_Marco_normativo.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_Facultades_funciones_atribuciones.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_Tramites_ante_consejo.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_ParticipacionCiudadana.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_Auditorias.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_Subsidios_beneficios_intermediarios.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_Subsidios_beneficios.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/TA_Licitaciones.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/Organismos_360.csv</t>
-  </si>
-  <si>
-    <t>http://www.consejotransparencia.cl/transparencia_activa/datoabierto/archivos/casos.csv</t>
-  </si>
-  <si>
-    <t>http://www.consejotransparencia.cl/transparencia_activa/datoabierto/archivos/estadosPorCaso.csv</t>
-  </si>
-  <si>
-    <t>http://www.consejotransparencia.cl/transparencia_activa/datoabierto/archivos/motivosPorCaso.csv</t>
-  </si>
-  <si>
-    <t>http://www.consejotransparencia.cl/transparencia_activa/datoabierto/archivos/notificaciones.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos//TA_Marco_normativo.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP0002.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP0003.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP0004.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP0005.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP0006.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP0007.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP0008.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP0009.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00010.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00011.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00012.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00013.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00014.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00015.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00016.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00017.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00018.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00019.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00020.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP00021.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/reclamados.csv</t>
-  </si>
-  <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/reclamantes.csv</t>
-  </si>
-  <si>
-    <t>TA/TA_Otras_autoridades.xlsx</t>
-  </si>
-  <si>
     <t>TA/TA_Potestades_otras.xlsx</t>
   </si>
   <si>
@@ -213,61 +213,61 @@
     <t>TA/PP0004.xlsx</t>
   </si>
   <si>
+    <t>TA/PP0005.xlsx</t>
+  </si>
+  <si>
+    <t>TA/PP0006.xlsx</t>
+  </si>
+  <si>
+    <t>TA/PP0007.xlsx</t>
+  </si>
+  <si>
+    <t>TA/PP0008.xlsx</t>
+  </si>
+  <si>
+    <t>TA/PP0009.xlsx</t>
+  </si>
+  <si>
+    <t>TA/PP00010.xlsx</t>
+  </si>
+  <si>
+    <t>TA/PP00011.xlsx</t>
+  </si>
+  <si>
+    <t>TA/PP00012.xlsx</t>
+  </si>
+  <si>
+    <t>TA/PP00013.xlsx</t>
+  </si>
+  <si>
+    <t>TA/PP00014.xlsx</t>
+  </si>
+  <si>
+    <t>TA/PP00015.xlsx</t>
+  </si>
+  <si>
+    <t>TA/PP00016.xlsx</t>
+  </si>
+  <si>
+    <t>TA/PP00017.xlsx</t>
+  </si>
+  <si>
+    <t>TA/PP00018.xlsx</t>
+  </si>
+  <si>
+    <t>TA/PP00019.xlsx</t>
+  </si>
+  <si>
+    <t>TA/PP00020.xlsx</t>
+  </si>
+  <si>
+    <t>TA/PP00021.xlsx</t>
+  </si>
+  <si>
     <t>TA/reclamados.xlsx</t>
   </si>
   <si>
     <t>TA/reclamantes.xlsx</t>
-  </si>
-  <si>
-    <t>TA/PP0005.xlsx</t>
-  </si>
-  <si>
-    <t>TA/PP0006.xlsx</t>
-  </si>
-  <si>
-    <t>TA/PP0007.xlsx</t>
-  </si>
-  <si>
-    <t>TA/PP0008.xlsx</t>
-  </si>
-  <si>
-    <t>TA/PP0009.xlsx</t>
-  </si>
-  <si>
-    <t>TA/PP00010.xlsx</t>
-  </si>
-  <si>
-    <t>TA/PP00011.xlsx</t>
-  </si>
-  <si>
-    <t>TA/PP00012.xlsx</t>
-  </si>
-  <si>
-    <t>TA/PP00013.xlsx</t>
-  </si>
-  <si>
-    <t>TA/PP00014.xlsx</t>
-  </si>
-  <si>
-    <t>TA/PP00015.xlsx</t>
-  </si>
-  <si>
-    <t>TA/PP00016.xlsx</t>
-  </si>
-  <si>
-    <t>TA/PP00017.xlsx</t>
-  </si>
-  <si>
-    <t>TA/PP00018.xlsx</t>
-  </si>
-  <si>
-    <t>TA/PP00019.xlsx</t>
-  </si>
-  <si>
-    <t>TA/PP00020.xlsx</t>
-  </si>
-  <si>
-    <t>TA/PP00021.xlsx</t>
   </si>
 </sst>
 </file>
@@ -606,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,31 +628,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -716,15 +716,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>57</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>46</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>60</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>61</v>
@@ -804,155 +804,156 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>63</v>
-      </c>
+      <c r="E42" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Descargas_1.xlsx
+++ b/Descargas_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Transparencia_Activa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466F4972-D7F1-49D4-A89C-70D3337DB7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7160F763-E200-4B8C-94E6-69043455DC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
   <si>
     <t>URL</t>
   </si>
@@ -93,15 +93,9 @@
     <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP0003.csv</t>
   </si>
   <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP0004.csv</t>
-  </si>
-  <si>
     <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP0005.csv</t>
   </si>
   <si>
-    <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP0006.csv</t>
-  </si>
-  <si>
     <t>http://www.cplt.cl/transparencia_activa/datoabierto/archivos/PP0007.csv</t>
   </si>
   <si>
@@ -210,13 +204,7 @@
     <t>TA/PP0003.xlsx</t>
   </si>
   <si>
-    <t>TA/PP0004.xlsx</t>
-  </si>
-  <si>
     <t>TA/PP0005.xlsx</t>
-  </si>
-  <si>
-    <t>TA/PP0006.xlsx</t>
   </si>
   <si>
     <t>TA/PP0007.xlsx</t>
@@ -606,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +619,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -639,7 +627,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -647,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +643,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +659,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +667,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +675,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +683,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +691,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -711,7 +699,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -719,7 +707,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +715,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -735,7 +723,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,7 +731,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,7 +739,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -759,7 +747,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -767,7 +755,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -775,7 +763,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -783,7 +771,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -791,7 +779,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -799,7 +787,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,7 +795,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -815,7 +803,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,7 +811,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -831,7 +819,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -839,7 +827,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -855,7 +843,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -863,7 +851,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,7 +859,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -879,7 +867,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -887,7 +875,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -895,7 +883,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -903,7 +891,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -911,7 +899,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -919,7 +907,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -927,7 +915,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -935,25 +923,9 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="E40" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
